--- a/advanced/Multi-Layer Perceptron.xlsx
+++ b/advanced/Multi-Layer Perceptron.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/peye9704_colorado_edu/Documents/2024/AIbyHand/spreadsheets/github/ai-by-hand-excel/advanced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1752" documentId="13_ncr:1_{7372ABCA-B9F9-7747-B866-EB234305EF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FE3CEA-8794-FA4A-8202-5B1D3F6C93E6}"/>
+  <xr:revisionPtr revIDLastSave="1753" documentId="13_ncr:1_{7372ABCA-B9F9-7747-B866-EB234305EF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5602DE6-FDCF-7547-952C-4A59F7943F97}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="740" windowWidth="15740" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="76">
   <si>
     <t>Input Layer</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>SOFTWARE.</t>
+  </si>
+  <si>
+    <t>nn.Linear(3,1)</t>
   </si>
 </sst>
 </file>
@@ -13851,10 +13854,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -14060,7 +14059,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15062,7 +15061,7 @@
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
